--- a/dedup2/dedup2_ATM.xlsx
+++ b/dedup2/dedup2_ATM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="945">
   <si>
     <t>name</t>
   </si>
@@ -951,12 +951,6 @@
     <t>https://www.google.com/maps/place/ATM+MANDIRI/@-7.7820223,110.3632725,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583164afa01d:0xbab9338df87a2fc2!8m2!3d-7.7820223!4d110.3722847!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11csbqmwxt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>Jl. Ps. Kembang No.74, RW.001, Sosromenduran, Gedong Tengen, Kota Yogyakarta, Daerah Istimewa Yogyakarta 55271</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Bank+Ina+Perdana/@-7.7899949,110.3551913,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a590ee1c47ca5:0x5853305658c14b16!8m2!3d-7.7899949!4d110.3642035!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11tx2_hwd8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>ATM UOB - UOB KCU Yogyakarta</t>
   </si>
   <si>
@@ -966,15 +960,6 @@
     <t>https://www.google.com/maps/place/ATM+UOB+-+UOB+KCU+Yogyakarta/@-7.7834061,110.3671983,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59f7184b964b:0x3a4c462011c77f5f!8m2!3d-7.7834061!4d110.3762105!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11rscw2_4d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>ATM - UNIT BRI JETIS</t>
-  </si>
-  <si>
-    <t>Jl. Margo Utomo No.58, Gowongan, Kec. Jetis, Kota Yogyakarta, Daerah Istimewa Yogyakarta 55233</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+-+UNIT+BRI+JETIS/@-7.7833887,110.3581061,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a597c4fd73563:0xec4bb75e2b284813!8m2!3d-7.7833887!4d110.3671183!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11rqz2y4p2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>ATM BRI RS Bethesda Jogja</t>
   </si>
   <si>
@@ -1482,18 +1467,9 @@
     <t>https://www.google.com/maps/place/ATM+BCA/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb298ef20c5d:0x77674a0e2d17c803!8m2!3d-7.8450158!4d110.2183129!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11km23yvqx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>ATM BNI Jalan Brigjen Katamso</t>
-  </si>
-  <si>
-    <t>45P5+J2V, Jl. Brigjen Katamso, Wates, Kec. Wates, Kabupaten Kulon Progo, Daerah Istimewa Yogyakarta 55651</t>
-  </si>
-  <si>
     <t>1 500 046</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/ATM+BNI+Jalan+Brigjen+Katamso/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3957ac5eb7:0xbf26f54d1c545998!8m2!3d-7.8633833!4d110.1575458!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6x99z5q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>ATM BANK BRI Jalan Bhayangkara</t>
   </si>
   <si>
@@ -1512,24 +1488,6 @@
     <t>https://www.google.com/maps/place/ATM+BPD+DIY+Unit+Dekso/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af3fcbc60942d:0xd63acb09a4e9c35b!8m2!3d-7.7164547!4d110.2248236!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11c2pw1zb1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>ATM BRI SAMSAT KULON PROGO</t>
-  </si>
-  <si>
-    <t>45M8+8P2, Gn. Gempal, Giri Peni, Kec. Wates, Kabupaten Kulon Progo, Daerah Istimewa Yogyakarta 55651</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BRI+SAMSAT+KULON+PROGO/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb15216b1169:0x222e82c8159f4c31!8m2!3d-7.86673!4d110.1667613!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11g72428g8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM BRI Sentolo</t>
-  </si>
-  <si>
-    <t>56FF+7JQ, Kali Bondol, Pongangan, Kec. Sentolo, Kabupaten Kulon Progo, Daerah Istimewa Yogyakarta 55664</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BRI+Sentolo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afa232efcc7b3:0x246bddf7c6349ee9!8m2!3d-7.8267788!4d110.2241215!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11f4qnrlsq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>ATM BRI Pengasih</t>
   </si>
   <si>
@@ -1584,36 +1542,12 @@
     <t>https://www.google.com/maps/place/ATM+BRI+Unit+Nanggulan/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af0e0db0e9b69:0x85169e796af7df5!8m2!3d-7.7669467!4d110.2093648!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11c0xn1wxn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>45Q5+X7R, Jl. Brigjen Katamso, Driyan, Wates, Kec. Wates, Kabupaten Kulon Progo, Daerah Istimewa Yogyakarta 55651</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Bank+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3b1c6cc063:0x37c979c0b045ee47!8m2!3d-7.8600237!4d110.1581285!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6d4z8nk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>568C+764, Kali Bondol, Sentolo, Kec. Sentolo, Kabupaten Kulon Progo, Daerah Istimewa Yogyakarta 55664</t>
   </si>
   <si>
     <t>https://www.google.com/maps/place/ATM+BCA/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afbe22935bbf7:0x60fd73f0f4d9c5a5!8m2!3d-7.8343429!4d110.2205913!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11tnfsnx5d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>ATM BRI Unit Sidorejo</t>
-  </si>
-  <si>
-    <t>Nglatiyan II, Ngentakrejo, Kec. Lendah, Kabupaten Kulon Progo, Daerah Istimewa Yogyakarta 55663</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BRI+Unit+Sidorejo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afec1fe0b549d:0xc7a7986efb53c7f6!8m2!3d-7.9041486!4d110.2649659!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11cknf3vr7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM BRI Unit Glagah</t>
-  </si>
-  <si>
-    <t>33VH+PH7, Jl. Glagah, Sangkretan, Glagah, Kec. Temon, Kabupaten Kulon Progo, Daerah Istimewa Yogyakarta 55654</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BRI+Unit+Glagah/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae39a27dbc7b9:0x7d14f932227463!8m2!3d-7.9057389!4d110.0789347!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11hck0r18h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>ATM Center</t>
   </si>
   <si>
@@ -1641,15 +1575,6 @@
     <t>https://www.google.com/maps/place/ATM+BRI+Girimulyo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af056fb8c6713:0xb5dd1d354fcd8a57!8m2!3d-7.771303!4d110.1843383!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11c0xz3n4j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>ATM BANK BRI</t>
-  </si>
-  <si>
-    <t>No. 1A, Watulunyu, Jl. Mandung, Serut, Pengasih, Kec. Pengasih, Kabupaten Kulon Progo, Daerah Istimewa Yogyakarta 55651</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BANK+BRI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb22b80c6763:0xcb765295df72f531!8m2!3d-7.8570265!4d110.1626505!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11hc_wfk10?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>ATM BRI Boro Galur</t>
   </si>
   <si>
@@ -1698,15 +1623,6 @@
     <t>https://www.google.com/maps/place/ATM+BRI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af1229dd748a1:0x22bd4e92f6d6b081!8m2!3d-7.7538437!4d110.2118816!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11bzt91pbs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>ATM BRI Unit Kota Wates</t>
-  </si>
-  <si>
-    <t>45M2+M39, Kompleks Pertokoan, Jl. KH Ahmad Dahlan, Area Sawah, Wates, Kec. Wates, Kabupaten Kulon Progo, Daerah Istimewa Yogyakarta 55651</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BRI+Unit+Kota+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb370971773f:0xd04367b10a38d004!8m2!3d-7.865842!4d110.150244!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6s_kmbd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>Bank BRI ATM - POLRES KULON PROGO</t>
   </si>
   <si>
@@ -1752,12 +1668,6 @@
     <t>https://www.google.com/maps/place/ATM+BRI+Samigaluh/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af2ecdd336109:0x14b406d013e4afa0!8m2!3d-7.6689445!4d110.1655096!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11f1w9sr41?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>365P+VV2, Pulo, Brosot, Kec. Galur, Kabupaten Kulon Progo, Daerah Istimewa Yogyakarta 55661</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afe76407bc859:0x38b31eaafd37fc42!8m2!3d-7.9403609!4d110.237128!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11fzf6wsxw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>437J+2RR, Jl. Magelang-Purworejo, Kaliwangan, Temon Wetan, Kec. Temon, Kabupaten Kulon Progo, Daerah Istimewa Yogyakarta 55654</t>
   </si>
   <si>
@@ -1971,15 +1881,6 @@
     <t>https://www.google.com/maps/place/Mesin+Setor+Tunai+BRI+WATES/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afbf82bd05fef:0x76ec01b538c36d5d!8m2!3d-7.8656632!4d110.1573077!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11g0hy_q6w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>Toko Mandiri</t>
-  </si>
-  <si>
-    <t>Jl. Daendels Pantai Sel. No.39, Karang, Brosot, Kec. Galur, Kabupaten Kulon Progo, Daerah Istimewa Yogyakarta 55661</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Toko+Mandiri/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afddc528ce2d5:0x282775e6f540cac7!8m2!3d-7.9453234!4d110.2262857!15sCg9BVE0gS3Vsb24gUHJvZ29aESIPYXRtIGt1bG9uIHByb2dvkgENZ3JvY2VyeV9zdG9yZeABAA!16s%2Fg%2F11c6_jspbs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>10 bulan lalu</t>
   </si>
   <si>
@@ -2070,15 +1971,6 @@
     <t>https://www.google.com/maps/place/BUKP+Kokap/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae43b81195ec7:0xe948e3e95fa6a896!8m2!3d-7.8677412!4d110.0601118!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11bzrpk0jr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>BCA KCP Wates</t>
-  </si>
-  <si>
-    <t>Jl. Khudori No.36, Wador, Wates, Kec. Wates, Kabupaten Kulon Progo, Daerah Istimewa Yogyakarta 55611</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/BCA+KCP+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3be53ad389:0xc3c0dec4655e0aa6!8m2!3d-7.864916!4d110.154073!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b6r_p672?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>BPD Yogyakarta</t>
   </si>
   <si>
@@ -2094,15 +1986,6 @@
     <t>5 hari lalu</t>
   </si>
   <si>
-    <t>Bank BRI Unit Lendah</t>
-  </si>
-  <si>
-    <t>35CV+MWM, Bulu I, Bumirejo, Kec. Lendah, Kabupaten Kulon Progo, Daerah Istimewa Yogyakarta 55663</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Bank+BRI+Unit+Lendah/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afdacb32ae4cf:0x2d4e568c0cefc9c1!8m2!3d-7.9282976!4d110.1948076!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b76q26g4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>Bank BRI CRM - BRI UNIT PENGASIH</t>
   </si>
   <si>
@@ -2175,18 +2058,6 @@
     <t>https://www.google.com/maps/place/Bank+BRI+CRM+-+BRI+UNIT+SENTOLO/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afbb20e78561f:0x1266e77281a035e8!8m2!3d-7.82675!4d110.22413!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11swcc3f75?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>Bank BRI Unit Galur</t>
-  </si>
-  <si>
-    <t>Jl. Raya Brosot, Brosot, Kec. Galur, Kabupaten Kulon Progo, Daerah Istimewa Yogyakarta 55661</t>
-  </si>
-  <si>
-    <t>0851-0010-2521</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Bank+BRI+Unit+Galur/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afddbc73cd9cf:0x80ddfcd2feb87b7d!8m2!3d-7.9398671!4d110.2386463!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1pzphwpy7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>Bank BRI CRM - BRI UNIT WATES KOTA</t>
   </si>
   <si>
@@ -2232,15 +2103,6 @@
     <t>https://www.google.com/maps/place/Bank+BPD+DIY+Kantor+Kas+Binangun/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3cc9acdd61:0x9f54be0105044c10!8m2!3d-7.8584415!4d110.1594286!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1pzrcdv6c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>444V+CH2, Jl. KH. Wahid Hasyim, Klopo Sepuluh, Bendungan, Kec. Wates, Kabupaten Kulon Progo, Daerah Istimewa Yogyakarta 55651</t>
-  </si>
-  <si>
-    <t>bpddiy.co.id</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Bank+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m13!1m3!2m2!1sATM+Kulon+Progo!6e2!3m8!1s0x2e7afcab9a8d9e8f:0x8e27ff67dbf3e617!8m2!3d-7.8939785!4d110.1438976!9m1!1b1!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11bzrpq86g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>Teras BRI Sentolo</t>
   </si>
   <si>
@@ -2688,63 +2550,6 @@
     <t>https://www.google.com/maps/place/ATM+Link+(BNI,+BRI,+BTN,+MANDIRI)/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ad18841eaf:0x57fb804c0b4dd9d6!8m2!3d-7.7623894!4d110.3801789!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g6nlkr0j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>ATM Mandiri Alfamart Palagan</t>
-  </si>
-  <si>
-    <t>793F+J9R, Jl. Palagan Tentara Pelajar, Jongkang, Sariharjo, Kec. Ngaglik, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55581</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Mandiri+Alfamart+Palagan/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58fc90af21a7:0x75133f39fddf0abc!8m2!3d-7.7458973!4d110.3734047!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6yprt5c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM BCA 619V Indomaret Tlogoadi Sleman</t>
-  </si>
-  <si>
-    <t>788V+346, Area Sawah, Tlogoadi, Kec. Mlati, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55286</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BCA+619V+Indomaret+Tlogoadi+Sleman/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58a2b2b38a91:0x78a319415c2a9102!8m2!3d-7.734836!4d110.3427727!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11hcj2ttqz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM Permata Bank</t>
-  </si>
-  <si>
-    <t>Jl. Magelang No.KM 7.2, Mlati Beningan, Sendangadi, Kec. Mlati, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55285</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Permata+Bank/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a593bcb06becf:0xd57a70a222c5f8e3!8m2!3d-7.7418854!4d110.3624339!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f6yx8dlq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>Indomaret, Jalan Gejayan No. 23, Condong Catur, Depok, Soropadan, Condongcatur, Sleman, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55283</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59a46bca9f4b:0xc5996e817bf13038!8m2!3d-7.7601134!4d110.3951207!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bby3yf8j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM Center JCM</t>
-  </si>
-  <si>
-    <t>69W6+J8M, Kutu Patran, Sinduadi, Kec. Mlati, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55284</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Center+JCM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58f67645e575:0xb10b97d06f7a50bc!8m2!3d-7.7534244!4d110.3607891!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11hctfwcmh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>79M3+5VC, Jl. Parasamya, Beran, Beran Kidul, Tridadi, Kec. Sleman, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55511</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Bank+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59f17fa0ddd1:0x78816c3d24b8a9e3!8m2!3d-7.7170639!4d110.3546411!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11p_51whmh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM Setor Tarik Tunai BNI Jalan Magelang</t>
-  </si>
-  <si>
-    <t>Jl. Magelang No.93, Kutu Dukuh, Sinduadi, Kec. Mlati, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55284</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Setor+Tarik+Tunai+BNI+Jalan+Magelang/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a585be6d2c6c7:0xbf56b29e9b975409!8m2!3d-7.7603554!4d110.3620142!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g8wh3pb7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>ATM Mandiri Superindo Jakal</t>
   </si>
   <si>
@@ -2832,84 +2637,6 @@
     <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58a0c7ca70a7:0xe57e87c01e57569f!8m2!3d-7.7315067!4d110.3323735!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bv5qs0dp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>BANK BRI ATM</t>
-  </si>
-  <si>
-    <t>RSUP Dr. Sardjito, Jl. Bhinneka Tunggal Ika, Sendowo, Sinduadi, Kec. Mlati, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/BANK+BRI+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584c0fdf18a3:0xb1db7d333ffb9a9d!8m2!3d-7.769315!4d110.373441!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6gntt1x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM Bank Mandiri Sendangadi</t>
-  </si>
-  <si>
-    <t>Jl. Magelang No.8,5, Mulungan Wetan, Sendangadi, Kec. Mlati, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55285</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Bank+Mandiri+Sendangadi/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58e9d41e14fb:0x19b2874c2ba8d039!8m2!3d-7.7347149!4d110.3632819!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6_hcy4m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>Jl. Affandi No.1A, Santren, Caturtunggal, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>(021) 1500286</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BTN/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c83d12e7a1:0x5910ee48f6eab63c!8m2!3d-7.7759355!4d110.3887959!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c0xjmgmf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM BNI KOPMA UNY YOGYAKARTA</t>
-  </si>
-  <si>
-    <t>Jalan Gejayan, Gondokusuman, Karang Malang, Caturtunggal, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BNI+KOPMA+UNY+YOGYAKARTA/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c98fb14405:0xb3e0210da430ac16!8m2!3d-7.7734428!4d110.3854637!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pj1v7n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM BNI Cabang Univ Negeri Yogyakarta 3</t>
-  </si>
-  <si>
-    <t>69FQ+XG8, JL Gejayan, Depok, Santren, Caturtunggal, Sleman, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BNI+Cabang+Univ+Negeri+Yogyakarta+3/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b7de474b05:0xe459059543e373e5!8m2!3d-7.7750812!4d110.3888159!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bc7nlcgb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>69J6+CP2, Jl. Magelang, Rogoyudan, Sinduadi, Kec. Mlati, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55242</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BCA/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58446c75a5b9:0x9a4187c68a4dd0af!8m2!3d-7.7689965!4d110.3617577!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b66cmrdk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM Mandiri Mirota Kampus Palagan</t>
-  </si>
-  <si>
-    <t>Jl. Palagan Tentara Pelajar No.24 B, Mudal, Sariharjo, Kec. Ngaglik, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55581</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Mandiri+Mirota+Kampus+Palagan/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58e00e3800e9:0x355063763e5d4918!8m2!3d-7.7340668!4d110.3776543!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g68zqmws?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM Bank BNI</t>
-  </si>
-  <si>
-    <t>79V6+PG8, Jl. Temon Raya Punduhan, Niron, Pandowoharjo, Kec. Sleman, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55512</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Bank+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f30cff826d1:0xa70bdb72f23f2303!8m2!3d-7.7057126!4d110.3613329!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11hb8jvps9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM BRI Al Azhar Jogja</t>
-  </si>
-  <si>
-    <t>Jl. Ring Road Utara No.Rt. 006, Pogung Lor, Sinduadi, Kec. Mlati, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55581</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BRI+Al+Azhar+Jogja/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58fee6ca647f:0x9532a16c7c56cbf1!8m2!3d-7.7515713!4d110.37431!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6df_bdg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>ATM Mandiri Plaza Agro UGM</t>
   </si>
   <si>
@@ -3066,93 +2793,12 @@
     <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584d5c917b09:0x5286f795fa2461c!8m2!3d-7.7649683!4d110.3770446!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b70f6qsw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>ATM Bersama LINK</t>
-  </si>
-  <si>
-    <t>6CX6+5CR, Dero, Condongcatur, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Bersama+LINK/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59762dcf5681:0x13dda4106c7d304e!8m2!3d-7.7520132!4d110.4110223!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f40zyyn6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM BPD RSUD Sleman</t>
-  </si>
-  <si>
-    <t>887R+4RF, Panggeran 8, Triharjo, Kec. Sleman, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55514</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BPD+RSUD+Sleman/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f658cb8af33:0x138fcd3a892dc10b!8m2!3d-7.6871903!4d110.3420428!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f4y2864q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>Dion Barker</t>
-  </si>
-  <si>
-    <t>785J+42H, Ketingan, Tirtoadi, Kec. Mlati, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55287</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Dion+Barker/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7af627453a1a7f:0x2b33ce6f1ba5a193!8m2!3d-7.7421909!4d110.3301043!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11h9_jzrmt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM BNI Adisucipto</t>
-  </si>
-  <si>
-    <t>698Q+RRQ, Jl. Laksda Adisucipto, Demangan, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BNI+Adisucipto/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59cf91ff3df7:0x9fcba4b1fc669de2!8m2!3d-7.7829057!4d110.3896023!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b64bxy0n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>Jl. Kebon Agung No.Km. 2 5, Karang Geneng, Sendangadi, Kec. Mlati, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55285</t>
   </si>
   <si>
     <t>https://www.google.com/maps/place/ATM+BCA/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ec7777f6b1:0x47f56a1e2ee30300!8m2!3d-7.7433043!4d110.3560218!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11sc23vk5d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>ATM Mandiri Polda DIY</t>
-  </si>
-  <si>
-    <t>Jl. Ring Road Utara No.9, Sanggrahan, Condongcatur, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Mandiri+Polda+DIY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59a18b0a500d:0x1a14e347e227acbd!8m2!3d-7.7580943!4d110.4008841!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g6nvvtyr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM BNI SPBU Sendangadi</t>
-  </si>
-  <si>
-    <t>Jl. Magelang No.7,5, Mlati Glondong, Sendangadi, Kec. Mlati, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55285</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BNI+SPBU+Sendangadi/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58e93388f85d:0xd3a9d721073f54d0!8m2!3d-7.7391155!4d110.3625084!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b72qw6tm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>Jalan Godean Km. 4, Ruko Tambak Mas, Area Sawah, Banyuraden, Sleman, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55264</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58085555556f:0xf0c0c68d4e1e3594!8m2!3d-7.7790537!4d110.3393063!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pj420v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>69FQ+XG7, Santren, Caturtunggal, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BRI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c83d1a81f7:0xdb6631e5028c3241!8m2!3d-7.7750763!4d110.3887833!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f4qds3cc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM BNI KLN Magelang</t>
-  </si>
-  <si>
-    <t>78XX+J89 KM.12, Jl. Magelang No.KM. 12, Wadas, Tridadi, Sleman, Sleman Regency, Special Region of Yogyakarta 55514</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BNI+KLN+Magelang/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a585c00000073:0xab51aa74f81fea99!8m2!3d-7.7008579!4d110.3483127!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pht169?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>Indomaret, Jl. Perumnas, Ngropoh, Condongcatur, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Mandiri+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5996fa31a0e9:0x983b803528ab167f!8m2!3d-7.7662768!4d110.4057888!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b633nlcq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>ATM BNI POLRES SLEMAN</t>
   </si>
   <si>
@@ -3177,15 +2823,6 @@
     <t>https://www.google.com/maps/place/ATM+Bank+Sinarmas/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5983d9178d21:0x8ccc235f0563df2c!8m2!3d-7.7637647!4d110.3792712!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11w4w92v02?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>ATM BNI Jogja City Mall</t>
-  </si>
-  <si>
-    <t>Jl. Magelang No.18, Kutu Patran, Sinduadi, Kec. Mlati, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55284</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BNI+Jogja+City+Mall/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58f5dbd3a573:0x77c842636d566015!8m2!3d-7.7538912!4d110.3604327!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g81c2mq6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>Bank BRI ATM - UNIT BRI DEPOK SLEMAN</t>
   </si>
   <si>
@@ -3195,39 +2832,6 @@
     <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+UNIT+BRI+DEPOK+SLEMAN/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b2e3aa9b33:0x97a5a56d6c9bfb7c!8m2!3d-7.7559013!4d110.3961695!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11pzyk77s5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>ATM BNI RS Gigi dan Mulut UGM</t>
-  </si>
-  <si>
-    <t>Jl. Denta Bulaksumur No.1, Sendowo, Sinduadi, Kec. Mlati, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BNI+RS+Gigi+dan+Mulut+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584b933afb79:0x376c3a7b4ea63641!8m2!3d-7.770767!4d110.374132!15sCgpBVE0gU2xlbWFukgEEYmFua-ABAA!16s%2Fg%2F11b5wf3yng?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM BANK BRI Unit Demangan</t>
-  </si>
-  <si>
-    <t>Jl. Affandi No.29, Santren, Caturtunggal, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BANK+BRI+Unit+Demangan/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b764488ac3:0xccf7bca7abf3966c!8m2!3d-7.7708262!4d110.3899423!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b75nh0kg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>Jl. Seturan Raya No.173, Kledokan, Caturtunggal, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>(0274) 486163</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Mandiri+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5993bd1545bd:0xd12ef011ed74a03e!8m2!3d-7.7699873!4d110.4100241!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b63627zp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>Jl. Kaliurang No.9, Gondangan, Sardonoharjo, Kec. Ngaglik, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55581</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a593edbd5a601:0x2ff817a581eeb0ff!8m2!3d-7.7283968!4d110.3989651!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b62tv4qm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>ATM - JOGJA CITY MALL</t>
   </si>
   <si>
@@ -3237,21 +2841,6 @@
     <t>https://www.google.com/maps/place/ATM+-+JOGJA+CITY+MALL/@-7.7198936,110.2169777,12z/data=!3m1!5s0x2e7a58f6fef5b2a1:0xcaebf8d1f5c9430b!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59f2942bb833:0x4c263a7f20689cfd!8m2!3d-7.753666!4d110.3607167!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11sqkkss20?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>Universitas Islam Negeri Sunan Kalijaga, Jl. Timoho, Papringan, Caturtunggal, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59db1392c9a5:0xa583c6307ee37d6b!8m2!3d-7.7860128!4d110.394623!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6b61nn0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM BNI Graha Strategic</t>
-  </si>
-  <si>
-    <t>6CG3+QVH, Graha Strategic, Jalan Perumnas, Catur Tunggal, Depok, Dabag, Condongcatur, Sleman, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BNI+Graha+Strategic/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59eaee590b7d:0xe29fc0bdcc28085e!8m2!3d-7.7730608!4d110.4047309!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bbyf6cdd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>ATM Permata</t>
   </si>
   <si>
@@ -3261,61 +2850,10 @@
     <t>https://www.google.com/maps/place/ATM+Permata/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5996aaaaaaab:0x122c089e24273ea8!8m2!3d-7.7735258!4d110.4093853!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F1jmclbwxr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
-    <t>69FV+P3M BRI Universitas Sanata Dharma, Jl. Mrican Baru, Mrican, Caturtunggal, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Bank+BRI+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c7bcb6f403:0x315242eb6e506ab9!8m2!3d-7.7756738!4d110.3926636!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b64jh5g5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM CENTER</t>
-  </si>
-  <si>
-    <t>Plaza Ambarukmo, Jl. Laksda Adisucipto LG, Ambarukmo, Caturtunggal, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+CENTER/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c296315bc9:0x9e884bf4d128415b!8m2!3d-7.782643!4d110.40142!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b74t7s7d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM Bank BCA 023Q-Toko Arloji Samudra Makmur</t>
-  </si>
-  <si>
-    <t>Jl. Kaliurang KM 5/10, Pogung Kidul, Sinduadi, Kec. Mlati, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55283</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Bank+BCA+023Q-Toko+Arloji+Samudra+Makmur/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ad1ef62d5f:0x8780bf6cf8d74b24!8m2!3d-7.7617725!4d110.3803699!15sCgpBVE0gU2xlbWFukgEEYmFua-ABAA!16s%2Fg%2F1q6jb2nn9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>Jalan Laksda Adisucipto KM 7.5, Ambarukmo, Caturtunggal, Sleman, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ef7d1d3f79:0xd7a16ae4dad0a4bf!8m2!3d-7.7827178!4d110.4014105!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pjzc53?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>Jl. Wahid Hasyim, Dabag, Condongcatur, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55283</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59bfec233ec1:0x862e54ebff7f0be4!8m2!3d-7.7728488!4d110.4012843!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bbyhpz5c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
     <t>Giant, Jl. Ngapak - Kentheng No.4,5, Area Sawah, Nogotirto, Kec. Gamping, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55293</t>
   </si>
   <si>
     <t>https://www.google.com/maps/place/ATM+BCA/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a580d811c7345:0x7594b4431c7c256b!8m2!3d-7.7789075!4d110.3402027!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b67hkqrn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>ATM Gallery Ambarukmo Plaza</t>
-  </si>
-  <si>
-    <t>Jl. Laksda Adisucipto No.KM. 7, RW.5, Ambarukmo, Caturtunggal, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+Gallery+Ambarukmo+Plaza/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ef7d1d3f79:0x50c63d545b7901e5!8m2!3d-7.7821428!4d110.4013488!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pjb8c0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>Jl. Ngapak - Kentheng No.4,5, Modinan, Banyuraden, Kec. Gamping, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55293</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a580cedeffc41:0xdc066af77eb9d75f!8m2!3d-7.7783884!4d110.3371984!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b75dyn3q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -3678,10 +3216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J359"/>
+  <dimension ref="A1:J303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="G305" sqref="G305"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="A304" sqref="A304:XFD359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3723,7 +3261,7 @@
         <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="F2">
         <v>-7.8862550000000002</v>
@@ -3735,15 +3273,15 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>613</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="B3" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -3761,15 +3299,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="E4">
         <v>3.8</v>
@@ -3784,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="J4" t="s">
         <v>93</v>
@@ -3792,10 +3330,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="B5" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="E5">
         <v>4.3</v>
@@ -3810,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="J5" t="s">
         <v>197</v>
@@ -3821,7 +3359,7 @@
         <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="F6">
         <v>-7.8869360000000004</v>
@@ -3833,21 +3371,21 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>607</v>
+        <v>577</v>
       </c>
       <c r="B7" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="E7">
         <v>4.9000000000000004</v>
@@ -3862,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>610</v>
+        <v>580</v>
       </c>
       <c r="J7" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3873,7 +3411,7 @@
         <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="E8">
         <v>4.7</v>
@@ -3888,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="J8" t="s">
         <v>42</v>
@@ -3896,10 +3434,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>571</v>
+        <v>543</v>
       </c>
       <c r="B9" t="s">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="E9">
         <v>3.4</v>
@@ -3914,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="J9" t="s">
         <v>62</v>
@@ -3922,10 +3460,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="B10" t="s">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -3940,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>606</v>
+        <v>576</v>
       </c>
       <c r="J10" t="s">
         <v>42</v>
@@ -3951,7 +3489,7 @@
         <v>211</v>
       </c>
       <c r="B11" t="s">
-        <v>770</v>
+        <v>724</v>
       </c>
       <c r="E11">
         <v>3.3</v>
@@ -3966,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>771</v>
+        <v>725</v>
       </c>
       <c r="J11" t="s">
         <v>93</v>
@@ -3974,10 +3512,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>638</v>
+        <v>608</v>
       </c>
       <c r="B12" t="s">
-        <v>639</v>
+        <v>609</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -3992,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="J12" t="s">
         <v>42</v>
@@ -4003,7 +3541,7 @@
         <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>728</v>
+        <v>685</v>
       </c>
       <c r="E13">
         <v>4.4000000000000004</v>
@@ -4018,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>729</v>
+        <v>686</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
@@ -4026,10 +3564,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>623</v>
+        <v>593</v>
       </c>
       <c r="B14" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -4047,15 +3585,15 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>625</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B15" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -4070,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J15" t="s">
         <v>62</v>
@@ -4078,10 +3616,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>725</v>
+        <v>682</v>
       </c>
       <c r="B16" t="s">
-        <v>726</v>
+        <v>683</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -4099,15 +3637,15 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>727</v>
+        <v>684</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="B17" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="E17">
         <v>4.5</v>
@@ -4122,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="J17" t="s">
         <v>15</v>
@@ -4130,10 +3668,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="B18" t="s">
-        <v>569</v>
+        <v>541</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -4148,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="J18" t="s">
         <v>15</v>
@@ -4156,10 +3694,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="B19" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="E19">
         <v>3.3</v>
@@ -4174,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -4182,13 +3720,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>772</v>
+        <v>726</v>
       </c>
       <c r="B20" t="s">
-        <v>773</v>
+        <v>727</v>
       </c>
       <c r="D20" t="s">
-        <v>774</v>
+        <v>728</v>
       </c>
       <c r="F20">
         <v>-7.8593630000000001</v>
@@ -4200,15 +3738,15 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>775</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="B21" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="D21" t="s">
         <v>40</v>
@@ -4226,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="J21" t="s">
         <v>71</v>
@@ -4234,10 +3772,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="B22" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -4258,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="J22" t="s">
         <v>71</v>
@@ -4266,10 +3804,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="B23" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -4287,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>637</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4295,7 +3833,7 @@
         <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -4310,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="J24" t="s">
         <v>136</v>
@@ -4318,10 +3856,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>722</v>
+        <v>679</v>
       </c>
       <c r="B25" t="s">
-        <v>723</v>
+        <v>680</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -4339,21 +3877,21 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>724</v>
+        <v>681</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>776</v>
+        <v>730</v>
       </c>
       <c r="B26" t="s">
-        <v>777</v>
+        <v>731</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>778</v>
+        <v>732</v>
       </c>
       <c r="E26">
         <v>3.3</v>
@@ -4368,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>779</v>
+        <v>733</v>
       </c>
       <c r="J26" t="s">
         <v>15</v>
@@ -4376,10 +3914,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>641</v>
+        <v>611</v>
       </c>
       <c r="B27" t="s">
-        <v>642</v>
+        <v>612</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -4397,18 +3935,18 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>643</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>754</v>
+        <v>708</v>
       </c>
       <c r="B28" t="s">
-        <v>755</v>
+        <v>709</v>
       </c>
       <c r="D28" t="s">
-        <v>756</v>
+        <v>710</v>
       </c>
       <c r="E28">
         <v>4.5</v>
@@ -4423,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>757</v>
+        <v>711</v>
       </c>
       <c r="J28" t="s">
         <v>32</v>
@@ -4431,16 +3969,16 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="B29" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="C29" t="s">
         <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E29">
         <v>4.4000000000000004</v>
@@ -4455,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="J29" t="s">
         <v>62</v>
@@ -4466,13 +4004,13 @@
         <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C30" t="s">
         <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E30">
         <v>4.0999999999999996</v>
@@ -4487,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="J30" t="s">
         <v>62</v>
@@ -4495,10 +4033,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B31" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -4513,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="J31" t="s">
         <v>76</v>
@@ -4521,10 +4059,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="B32" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="E32">
         <v>4.9000000000000004</v>
@@ -4539,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="J32" t="s">
         <v>15</v>
@@ -4547,10 +4085,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>712</v>
+        <v>673</v>
       </c>
       <c r="B33" t="s">
-        <v>713</v>
+        <v>674</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -4568,15 +4106,15 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>714</v>
+        <v>675</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>629</v>
+        <v>599</v>
       </c>
       <c r="B34" t="s">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -4594,15 +4132,15 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>730</v>
+        <v>687</v>
       </c>
       <c r="B35" t="s">
-        <v>731</v>
+        <v>688</v>
       </c>
       <c r="D35" t="s">
         <v>141</v>
@@ -4620,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>732</v>
+        <v>689</v>
       </c>
       <c r="J35" t="s">
         <v>15</v>
@@ -4628,10 +4166,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>647</v>
+        <v>617</v>
       </c>
       <c r="B36" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
       <c r="F36">
         <v>-7.8656629999999996</v>
@@ -4643,21 +4181,21 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>649</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="B37" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="E37">
         <v>3.9</v>
@@ -4672,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="J37" t="s">
         <v>62</v>
@@ -4680,16 +4218,16 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>743</v>
+        <v>697</v>
       </c>
       <c r="B38" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="C38" t="s">
-        <v>745</v>
+        <v>699</v>
       </c>
       <c r="D38" t="s">
-        <v>746</v>
+        <v>700</v>
       </c>
       <c r="E38">
         <v>4.4000000000000004</v>
@@ -4704,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>747</v>
+        <v>701</v>
       </c>
       <c r="J38" t="s">
         <v>15</v>
@@ -4712,16 +4250,16 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>748</v>
+        <v>702</v>
       </c>
       <c r="B39" t="s">
-        <v>749</v>
+        <v>703</v>
       </c>
       <c r="C39" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
       <c r="D39" t="s">
-        <v>750</v>
+        <v>704</v>
       </c>
       <c r="E39">
         <v>4.4000000000000004</v>
@@ -4736,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>751</v>
+        <v>705</v>
       </c>
       <c r="J39" t="s">
         <v>20</v>
@@ -4744,16 +4282,16 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>697</v>
+        <v>658</v>
       </c>
       <c r="B40" t="s">
-        <v>698</v>
+        <v>659</v>
       </c>
       <c r="C40" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D40" t="s">
-        <v>699</v>
+        <v>660</v>
       </c>
       <c r="E40">
         <v>4.0999999999999996</v>
@@ -4768,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>700</v>
+        <v>661</v>
       </c>
       <c r="J40" t="s">
         <v>32</v>
@@ -4776,13 +4314,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>708</v>
+        <v>669</v>
       </c>
       <c r="B41" t="s">
-        <v>709</v>
+        <v>670</v>
       </c>
       <c r="D41" t="s">
-        <v>710</v>
+        <v>671</v>
       </c>
       <c r="E41">
         <v>4.5999999999999996</v>
@@ -4797,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>711</v>
+        <v>672</v>
       </c>
       <c r="J41" t="s">
         <v>93</v>
@@ -4805,13 +4343,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>780</v>
+        <v>734</v>
       </c>
       <c r="B42" t="s">
-        <v>781</v>
+        <v>735</v>
       </c>
       <c r="D42" t="s">
-        <v>782</v>
+        <v>736</v>
       </c>
       <c r="E42">
         <v>4.3</v>
@@ -4826,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>783</v>
+        <v>737</v>
       </c>
       <c r="J42" t="s">
         <v>71</v>
@@ -4834,13 +4372,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>733</v>
+        <v>690</v>
       </c>
       <c r="B43" t="s">
-        <v>734</v>
+        <v>691</v>
       </c>
       <c r="D43" t="s">
-        <v>735</v>
+        <v>692</v>
       </c>
       <c r="E43">
         <v>4.7</v>
@@ -4855,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>736</v>
+        <v>693</v>
       </c>
       <c r="J43" t="s">
         <v>93</v>
@@ -4863,10 +4401,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="B44" t="s">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="F44">
         <v>-7.858301</v>
@@ -4878,15 +4416,15 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>619</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="B45" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -4901,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="J45" t="s">
         <v>76</v>
@@ -4909,10 +4447,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>565</v>
+        <v>537</v>
       </c>
       <c r="B46" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="C46" t="s">
         <v>74</v>
@@ -4930,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="J46" t="s">
         <v>76</v>
@@ -4938,13 +4476,13 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>762</v>
+        <v>716</v>
       </c>
       <c r="B47" t="s">
-        <v>763</v>
+        <v>717</v>
       </c>
       <c r="D47" t="s">
-        <v>764</v>
+        <v>718</v>
       </c>
       <c r="E47">
         <v>4.2</v>
@@ -4959,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>765</v>
+        <v>719</v>
       </c>
       <c r="J47" t="s">
         <v>108</v>
@@ -4967,10 +4505,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="B48" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="E48">
         <v>4.3</v>
@@ -4985,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="J48" t="s">
         <v>71</v>
@@ -4993,10 +4531,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="B49" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
       <c r="E49">
         <v>4.0999999999999996</v>
@@ -5011,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="J49" t="s">
         <v>15</v>
@@ -5019,10 +4557,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>694</v>
+        <v>655</v>
       </c>
       <c r="B50" t="s">
-        <v>695</v>
+        <v>656</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -5040,15 +4578,15 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>696</v>
+        <v>657</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="B51" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="E51">
         <v>4.5</v>
@@ -5063,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="J51" t="s">
         <v>15</v>
@@ -5071,10 +4609,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="B52" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -5092,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="J52" t="s">
         <v>15</v>
@@ -5100,10 +4638,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>632</v>
+        <v>602</v>
       </c>
       <c r="B53" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -5121,18 +4659,18 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="B54" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="D54" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="E54">
         <v>5</v>
@@ -5147,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="J54" t="s">
         <v>62</v>
@@ -5155,10 +4693,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
       <c r="B55" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -5176,15 +4714,15 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="B56" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="E56">
         <v>4.5999999999999996</v>
@@ -5199,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="J56" t="s">
         <v>71</v>
@@ -5207,13 +4745,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>758</v>
+        <v>712</v>
       </c>
       <c r="B57" t="s">
-        <v>759</v>
+        <v>713</v>
       </c>
       <c r="D57" t="s">
-        <v>760</v>
+        <v>714</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -5228,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>761</v>
+        <v>715</v>
       </c>
       <c r="J57" t="s">
         <v>71</v>
@@ -5236,10 +4774,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="B58" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -5254,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="J58" t="s">
         <v>76</v>
@@ -5262,10 +4800,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>705</v>
+        <v>666</v>
       </c>
       <c r="B59" t="s">
-        <v>706</v>
+        <v>667</v>
       </c>
       <c r="E59">
         <v>4.0999999999999996</v>
@@ -5280,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>707</v>
+        <v>668</v>
       </c>
       <c r="J59" t="s">
         <v>93</v>
@@ -5288,10 +4826,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="B60" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="E60">
         <v>4.0999999999999996</v>
@@ -5306,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="J60" t="s">
         <v>62</v>
@@ -5314,10 +4852,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>644</v>
+        <v>614</v>
       </c>
       <c r="B61" t="s">
-        <v>645</v>
+        <v>615</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
@@ -5335,15 +4873,15 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>646</v>
+        <v>616</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B62" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="E62">
         <v>3.6</v>
@@ -5358,15 +4896,15 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="B63" t="s">
-        <v>752</v>
+        <v>706</v>
       </c>
       <c r="E63">
         <v>4.5</v>
@@ -5381,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>753</v>
+        <v>707</v>
       </c>
       <c r="J63" t="s">
         <v>62</v>
@@ -5389,16 +4927,16 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>766</v>
+        <v>720</v>
       </c>
       <c r="B64" t="s">
-        <v>767</v>
+        <v>721</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>768</v>
+        <v>722</v>
       </c>
       <c r="E64">
         <v>4</v>
@@ -5413,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>769</v>
+        <v>723</v>
       </c>
       <c r="J64" t="s">
         <v>15</v>
@@ -5421,13 +4959,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="B65" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="D65" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="E65">
         <v>3.8</v>
@@ -5442,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="J65" t="s">
         <v>15</v>
@@ -5453,7 +4991,7 @@
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="E66">
         <v>4.2</v>
@@ -5468,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="J66" t="s">
         <v>54</v>
@@ -5476,13 +5014,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>686</v>
+        <v>650</v>
       </c>
       <c r="B67" t="s">
-        <v>687</v>
+        <v>651</v>
       </c>
       <c r="D67" t="s">
-        <v>688</v>
+        <v>652</v>
       </c>
       <c r="E67">
         <v>4.5</v>
@@ -5497,10 +5035,10 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>689</v>
+        <v>653</v>
       </c>
       <c r="J67" t="s">
-        <v>690</v>
+        <v>654</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -5508,7 +5046,7 @@
         <v>187</v>
       </c>
       <c r="B68" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="E68">
         <v>3.5</v>
@@ -5523,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="J68" t="s">
         <v>76</v>
@@ -5531,10 +5069,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>740</v>
+        <v>694</v>
       </c>
       <c r="B69" t="s">
-        <v>741</v>
+        <v>695</v>
       </c>
       <c r="E69">
         <v>4</v>
@@ -5549,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>742</v>
+        <v>696</v>
       </c>
       <c r="J69" t="s">
         <v>71</v>
@@ -5560,7 +5098,7 @@
         <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E70">
         <v>4</v>
@@ -5575,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J70" t="s">
         <v>15</v>
@@ -5583,16 +5121,16 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="B71" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="E71">
         <v>3.8</v>
@@ -5607,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="J71" t="s">
         <v>93</v>
@@ -5615,10 +5153,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B72" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -5633,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="J72" t="s">
         <v>71</v>
@@ -5641,10 +5179,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="B73" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
       <c r="E73">
         <v>4.5</v>
@@ -5659,10 +5197,10 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="J73" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -5670,7 +5208,7 @@
         <v>112</v>
       </c>
       <c r="B74" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="F74">
         <v>-7.8343429999999996</v>
@@ -5682,21 +5220,21 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>672</v>
+        <v>639</v>
       </c>
       <c r="B75" t="s">
-        <v>673</v>
+        <v>640</v>
       </c>
       <c r="C75" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
       <c r="D75" t="s">
-        <v>675</v>
+        <v>642</v>
       </c>
       <c r="E75">
         <v>4.2</v>
@@ -5711,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="J75" t="s">
         <v>37</v>
@@ -5719,10 +5257,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="B76" t="s">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="E76">
         <v>4.5</v>
@@ -5737,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>622</v>
+        <v>592</v>
       </c>
       <c r="J76" t="s">
         <v>71</v>
@@ -5745,13 +5283,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>701</v>
+        <v>662</v>
       </c>
       <c r="B77" t="s">
-        <v>702</v>
+        <v>663</v>
       </c>
       <c r="D77" t="s">
-        <v>703</v>
+        <v>664</v>
       </c>
       <c r="E77">
         <v>3.4</v>
@@ -5766,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>704</v>
+        <v>665</v>
       </c>
       <c r="J77" t="s">
         <v>62</v>
@@ -5774,10 +5312,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B78" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E78">
         <v>4.5</v>
@@ -5792,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="J78" t="s">
         <v>15</v>
@@ -5800,10 +5338,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>715</v>
+        <v>676</v>
       </c>
       <c r="B79" t="s">
-        <v>716</v>
+        <v>677</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -5821,15 +5359,15 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>717</v>
+        <v>678</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="B80" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -5847,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="J80" t="s">
         <v>15</v>
@@ -5855,10 +5393,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B81" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D81" t="s">
         <v>40</v>
@@ -5876,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="J81" t="s">
         <v>37</v>
@@ -5884,10 +5422,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="B82" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="F82">
         <v>-7.8208589999999996</v>
@@ -5899,15 +5437,15 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="B83" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -5922,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="J83" t="s">
         <v>37</v>
@@ -5930,10 +5468,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="B84" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="F84">
         <v>-7.6512390000000003</v>
@@ -5945,15 +5483,15 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="B85" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
@@ -5971,15 +5509,15 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>628</v>
+        <v>598</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="B86" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
@@ -6000,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="J86" t="s">
         <v>76</v>
@@ -6173,10 +5711,10 @@
         <v>139</v>
       </c>
       <c r="B93" t="s">
-        <v>917</v>
+        <v>852</v>
       </c>
       <c r="C93" t="s">
-        <v>918</v>
+        <v>853</v>
       </c>
       <c r="E93">
         <v>3.8</v>
@@ -6191,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>919</v>
+        <v>854</v>
       </c>
       <c r="J93" t="s">
         <v>62</v>
@@ -6234,7 +5772,7 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>935</v>
+        <v>870</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
@@ -6252,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>936</v>
+        <v>871</v>
       </c>
       <c r="J95" t="s">
         <v>58</v>
@@ -6260,10 +5798,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B96" t="s">
-        <v>933</v>
+        <v>868</v>
       </c>
       <c r="E96">
         <v>3.8</v>
@@ -6278,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>934</v>
+        <v>869</v>
       </c>
       <c r="J96" t="s">
         <v>76</v>
@@ -6286,10 +5824,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>966</v>
+        <v>875</v>
       </c>
       <c r="B97" t="s">
-        <v>967</v>
+        <v>876</v>
       </c>
       <c r="D97" t="s">
         <v>40</v>
@@ -6307,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>968</v>
+        <v>877</v>
       </c>
       <c r="J97" t="s">
         <v>76</v>
@@ -6463,10 +6001,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>925</v>
+        <v>860</v>
       </c>
       <c r="B103" t="s">
-        <v>926</v>
+        <v>861</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
@@ -6484,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>927</v>
+        <v>862</v>
       </c>
       <c r="J103" t="s">
         <v>42</v>
@@ -6521,7 +6059,7 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>1092</v>
+        <v>943</v>
       </c>
       <c r="C105" t="s">
         <v>74</v>
@@ -6539,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>1093</v>
+        <v>944</v>
       </c>
       <c r="J105" t="s">
         <v>76</v>
@@ -6547,10 +6085,10 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1005</v>
+        <v>914</v>
       </c>
       <c r="B106" t="s">
-        <v>1006</v>
+        <v>915</v>
       </c>
       <c r="E106">
         <v>4</v>
@@ -6565,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>1007</v>
+        <v>916</v>
       </c>
       <c r="J106" t="s">
         <v>76</v>
@@ -6573,10 +6111,10 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>868</v>
+        <v>822</v>
       </c>
       <c r="B107" t="s">
-        <v>869</v>
+        <v>823</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
@@ -6597,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>870</v>
+        <v>824</v>
       </c>
       <c r="J107" t="s">
         <v>76</v>
@@ -6605,10 +6143,10 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>823</v>
+        <v>777</v>
       </c>
       <c r="B108" t="s">
-        <v>824</v>
+        <v>778</v>
       </c>
       <c r="F108">
         <v>-7.6872559999999996</v>
@@ -6620,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>825</v>
+        <v>779</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -6628,7 +6166,7 @@
         <v>33</v>
       </c>
       <c r="B109" t="s">
-        <v>847</v>
+        <v>801</v>
       </c>
       <c r="D109" t="s">
         <v>35</v>
@@ -6646,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>848</v>
+        <v>802</v>
       </c>
       <c r="J109" t="s">
         <v>54</v>
@@ -6686,10 +6224,10 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1044</v>
+        <v>926</v>
       </c>
       <c r="B111" t="s">
-        <v>1045</v>
+        <v>927</v>
       </c>
       <c r="F111">
         <v>-7.696949</v>
@@ -6701,15 +6239,15 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>1046</v>
+        <v>928</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>835</v>
+        <v>789</v>
       </c>
       <c r="B112" t="s">
-        <v>836</v>
+        <v>790</v>
       </c>
       <c r="C112" t="s">
         <v>74</v>
@@ -6727,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>837</v>
+        <v>791</v>
       </c>
       <c r="J112" t="s">
         <v>62</v>
@@ -6735,10 +6273,10 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B113" t="s">
-        <v>1008</v>
+        <v>917</v>
       </c>
       <c r="C113" t="s">
         <v>79</v>
@@ -6759,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>1009</v>
+        <v>918</v>
       </c>
       <c r="J113" t="s">
         <v>71</v>
@@ -6767,10 +6305,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>920</v>
+        <v>855</v>
       </c>
       <c r="B114" t="s">
-        <v>921</v>
+        <v>856</v>
       </c>
       <c r="C114" t="s">
         <v>18</v>
@@ -6791,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>922</v>
+        <v>857</v>
       </c>
       <c r="J114" t="s">
         <v>15</v>
@@ -6799,10 +6337,10 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>810</v>
+        <v>764</v>
       </c>
       <c r="B115" t="s">
-        <v>811</v>
+        <v>765</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
@@ -6820,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>812</v>
+        <v>766</v>
       </c>
       <c r="J115" t="s">
         <v>42</v>
@@ -6828,10 +6366,10 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>914</v>
+        <v>849</v>
       </c>
       <c r="B116" t="s">
-        <v>915</v>
+        <v>850</v>
       </c>
       <c r="E116">
         <v>3.5</v>
@@ -6846,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>916</v>
+        <v>851</v>
       </c>
       <c r="J116" t="s">
         <v>42</v>
@@ -6857,7 +6395,7 @@
         <v>181</v>
       </c>
       <c r="B117" t="s">
-        <v>849</v>
+        <v>803</v>
       </c>
       <c r="C117" t="s">
         <v>18</v>
@@ -6878,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>850</v>
+        <v>804</v>
       </c>
       <c r="J117" t="s">
         <v>164</v>
@@ -6886,10 +6424,10 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>877</v>
+        <v>831</v>
       </c>
       <c r="B118" t="s">
-        <v>878</v>
+        <v>832</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
@@ -6907,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>879</v>
+        <v>833</v>
       </c>
       <c r="J118" t="s">
         <v>42</v>
@@ -6918,10 +6456,10 @@
         <v>55</v>
       </c>
       <c r="B119" t="s">
-        <v>857</v>
+        <v>811</v>
       </c>
       <c r="D119" t="s">
-        <v>858</v>
+        <v>812</v>
       </c>
       <c r="E119">
         <v>4.7</v>
@@ -6936,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>859</v>
+        <v>813</v>
       </c>
       <c r="J119" t="s">
         <v>42</v>
@@ -6944,10 +6482,10 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>832</v>
+        <v>786</v>
       </c>
       <c r="B120" t="s">
-        <v>833</v>
+        <v>787</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
@@ -6965,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>834</v>
+        <v>788</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -6973,7 +6511,7 @@
         <v>112</v>
       </c>
       <c r="B121" t="s">
-        <v>1027</v>
+        <v>924</v>
       </c>
       <c r="F121">
         <v>-7.7433040000000002</v>
@@ -6985,15 +6523,15 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>1028</v>
+        <v>925</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>807</v>
+        <v>761</v>
       </c>
       <c r="B122" t="s">
-        <v>808</v>
+        <v>762</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
@@ -7011,15 +6549,15 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>809</v>
+        <v>763</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B123" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F123">
         <v>-7.7881989999999996</v>
@@ -7031,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -7065,10 +6603,10 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B125" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F125">
         <v>-7.7879100000000001</v>
@@ -7080,18 +6618,18 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>787</v>
+        <v>741</v>
       </c>
       <c r="B126" t="s">
-        <v>788</v>
+        <v>742</v>
       </c>
       <c r="C126" t="s">
-        <v>789</v>
+        <v>743</v>
       </c>
       <c r="E126">
         <v>2.2000000000000002</v>
@@ -7106,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>790</v>
+        <v>744</v>
       </c>
       <c r="J126" t="s">
         <v>58</v>
@@ -7117,7 +6655,7 @@
         <v>16</v>
       </c>
       <c r="B127" t="s">
-        <v>796</v>
+        <v>750</v>
       </c>
       <c r="C127" t="s">
         <v>18</v>
@@ -7135,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>797</v>
+        <v>751</v>
       </c>
       <c r="J127" t="s">
         <v>247</v>
@@ -7172,10 +6710,10 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1069</v>
+        <v>937</v>
       </c>
       <c r="B129" t="s">
-        <v>1070</v>
+        <v>938</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
@@ -7193,18 +6731,18 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>1071</v>
+        <v>939</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B130" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D130" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F130">
         <v>-7.77895</v>
@@ -7216,15 +6754,15 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>784</v>
+        <v>738</v>
       </c>
       <c r="B131" t="s">
-        <v>785</v>
+        <v>739</v>
       </c>
       <c r="E131">
         <v>5</v>
@@ -7239,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>786</v>
+        <v>740</v>
       </c>
       <c r="J131" t="s">
         <v>54</v>
@@ -7276,10 +6814,10 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>860</v>
+        <v>814</v>
       </c>
       <c r="B133" t="s">
-        <v>861</v>
+        <v>815</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
@@ -7300,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>862</v>
+        <v>816</v>
       </c>
       <c r="J133" t="s">
         <v>15</v>
@@ -7308,10 +6846,10 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B134" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F134">
         <v>-7.7896960000000002</v>
@@ -7323,15 +6861,15 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>874</v>
+        <v>828</v>
       </c>
       <c r="B135" t="s">
-        <v>875</v>
+        <v>829</v>
       </c>
       <c r="D135" t="s">
         <v>141</v>
@@ -7349,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>876</v>
+        <v>830</v>
       </c>
       <c r="J135" t="s">
         <v>62</v>
@@ -7357,10 +6895,10 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>854</v>
+        <v>808</v>
       </c>
       <c r="B136" t="s">
-        <v>855</v>
+        <v>809</v>
       </c>
       <c r="C136" t="s">
         <v>79</v>
@@ -7381,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>856</v>
+        <v>810</v>
       </c>
       <c r="J136" t="s">
         <v>62</v>
@@ -7389,10 +6927,10 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>817</v>
+        <v>771</v>
       </c>
       <c r="B137" t="s">
-        <v>818</v>
+        <v>772</v>
       </c>
       <c r="C137" t="s">
         <v>18</v>
@@ -7410,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>819</v>
+        <v>773</v>
       </c>
       <c r="J137" t="s">
         <v>62</v>
@@ -7421,7 +6959,7 @@
         <v>16</v>
       </c>
       <c r="B138" t="s">
-        <v>813</v>
+        <v>767</v>
       </c>
       <c r="C138" t="s">
         <v>18</v>
@@ -7439,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>814</v>
+        <v>768</v>
       </c>
       <c r="J138" t="s">
         <v>15</v>
@@ -7450,13 +6988,13 @@
         <v>16</v>
       </c>
       <c r="B139" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C139" t="s">
         <v>18</v>
       </c>
       <c r="D139" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E139">
         <v>3.7</v>
@@ -7471,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J139" t="s">
         <v>173</v>
@@ -7482,7 +7020,7 @@
         <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>815</v>
+        <v>769</v>
       </c>
       <c r="C140" t="s">
         <v>18</v>
@@ -7503,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>816</v>
+        <v>770</v>
       </c>
       <c r="J140" t="s">
         <v>62</v>
@@ -7514,13 +7052,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>1010</v>
+        <v>919</v>
       </c>
       <c r="C141" t="s">
-        <v>918</v>
+        <v>853</v>
       </c>
       <c r="D141" t="s">
-        <v>1011</v>
+        <v>920</v>
       </c>
       <c r="E141">
         <v>3.5</v>
@@ -7535,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>1012</v>
+        <v>921</v>
       </c>
       <c r="J141" t="s">
         <v>62</v>
@@ -7543,16 +7081,16 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B142" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C142" t="s">
         <v>79</v>
       </c>
       <c r="D142" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E142">
         <v>4.2</v>
@@ -7567,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="J142" t="s">
         <v>62</v>
@@ -7575,10 +7113,10 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B143" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C143" t="s">
         <v>79</v>
@@ -7599,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J143" t="s">
         <v>71</v>
@@ -7607,13 +7145,13 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B144" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D144" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E144">
         <v>3.9</v>
@@ -7628,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="J144" t="s">
         <v>15</v>
@@ -7636,16 +7174,16 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B145" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C145" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D145" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F145">
         <v>-7.7890540000000001</v>
@@ -7657,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -7688,16 +7226,16 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>969</v>
+        <v>878</v>
       </c>
       <c r="B147" t="s">
-        <v>970</v>
+        <v>879</v>
       </c>
       <c r="C147" t="s">
         <v>79</v>
       </c>
       <c r="D147" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E147">
         <v>4</v>
@@ -7712,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>971</v>
+        <v>880</v>
       </c>
       <c r="J147" t="s">
         <v>76</v>
@@ -7740,10 +7278,10 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B149" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F149">
         <v>-7.7826979999999999</v>
@@ -7755,15 +7293,15 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B150" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C150" t="s">
         <v>79</v>
@@ -7784,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="J150" t="s">
         <v>71</v>
@@ -7818,7 +7356,7 @@
         <v>130</v>
       </c>
       <c r="B152" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -7833,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="J152" t="s">
         <v>136</v>
@@ -7876,7 +7414,7 @@
         <v>77</v>
       </c>
       <c r="B154" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F154">
         <v>-7.7972250000000001</v>
@@ -7888,15 +7426,15 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B155" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E155">
         <v>5</v>
@@ -7911,10 +7449,10 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J155" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -7922,7 +7460,7 @@
         <v>187</v>
       </c>
       <c r="B156" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E156">
         <v>4.5</v>
@@ -7937,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J156" t="s">
         <v>71</v>
@@ -7945,13 +7483,13 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B157" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D157" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F157">
         <v>-7.7924629999999997</v>
@@ -7963,18 +7501,18 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B158" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D158" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E158">
         <v>3.3</v>
@@ -7989,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J158" t="s">
         <v>62</v>
@@ -7997,10 +7535,10 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B159" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E159">
         <v>3.7</v>
@@ -8015,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J159" t="s">
         <v>15</v>
@@ -8026,7 +7564,7 @@
         <v>77</v>
       </c>
       <c r="B160" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F160">
         <v>-7.8144450000000001</v>
@@ -8038,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -8072,7 +7610,7 @@
         <v>77</v>
       </c>
       <c r="B162" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F162">
         <v>-7.7943759999999997</v>
@@ -8084,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -8092,13 +7630,13 @@
         <v>112</v>
       </c>
       <c r="B163" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C163" t="s">
         <v>74</v>
       </c>
       <c r="D163" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E163">
         <v>3.8</v>
@@ -8113,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J163" t="s">
         <v>15</v>
@@ -8124,7 +7662,7 @@
         <v>187</v>
       </c>
       <c r="B164" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F164">
         <v>-7.7991739999999998</v>
@@ -8136,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -8144,7 +7682,7 @@
         <v>16</v>
       </c>
       <c r="B165" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C165" t="s">
         <v>18</v>
@@ -8162,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="J165" t="s">
         <v>62</v>
@@ -8173,7 +7711,7 @@
         <v>112</v>
       </c>
       <c r="B166" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C166" t="s">
         <v>74</v>
@@ -8194,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J166" t="s">
         <v>71</v>
@@ -8260,7 +7798,7 @@
         <v>16</v>
       </c>
       <c r="B169" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C169" t="s">
         <v>18</v>
@@ -8281,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J169" t="s">
         <v>136</v>
@@ -8315,13 +7853,13 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B171" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D171" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E171">
         <v>4.0999999999999996</v>
@@ -8336,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="J171" t="s">
         <v>93</v>
@@ -8393,10 +7931,10 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B174" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C174" t="s">
         <v>12</v>
@@ -8414,15 +7952,15 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B175" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
@@ -8443,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J175" t="s">
         <v>15</v>
@@ -8532,10 +8070,10 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B179" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C179" t="s">
         <v>74</v>
@@ -8556,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J179" t="s">
         <v>71</v>
@@ -8564,10 +8102,10 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B180" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C180" t="s">
         <v>74</v>
@@ -8582,15 +8120,15 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B181" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C181" t="s">
         <v>79</v>
@@ -8608,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -8645,10 +8183,10 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B183" t="s">
-        <v>994</v>
+        <v>903</v>
       </c>
       <c r="F183">
         <v>-7.719557</v>
@@ -8660,15 +8198,15 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>995</v>
+        <v>904</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B184" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C184" t="s">
         <v>12</v>
@@ -8686,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -8694,7 +8232,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D185" t="s">
         <v>40</v>
@@ -8712,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J185" t="s">
         <v>76</v>
@@ -8720,10 +8258,10 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B186" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C186" t="s">
         <v>18</v>
@@ -8741,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J186" t="s">
         <v>164</v>
@@ -8749,10 +8287,10 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B187" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E187">
         <v>3.9</v>
@@ -8767,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="J187" t="s">
         <v>173</v>
@@ -8842,7 +8380,7 @@
         <v>268</v>
       </c>
       <c r="B190" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D190" t="s">
         <v>270</v>
@@ -8860,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="J190" t="s">
         <v>136</v>
@@ -8868,13 +8406,13 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B191" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D191" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F191">
         <v>-7.7977449999999999</v>
@@ -8886,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -8894,7 +8432,7 @@
         <v>16</v>
       </c>
       <c r="B192" t="s">
-        <v>826</v>
+        <v>780</v>
       </c>
       <c r="C192" t="s">
         <v>18</v>
@@ -8912,24 +8450,24 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>827</v>
+        <v>781</v>
       </c>
       <c r="J192" t="s">
-        <v>828</v>
+        <v>782</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B193" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C193" t="s">
         <v>79</v>
       </c>
       <c r="D193" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E193">
         <v>4.5</v>
@@ -8944,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="J193" t="s">
         <v>76</v>
@@ -8952,10 +8490,10 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B194" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F194">
         <v>-7.7785219999999997</v>
@@ -8967,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -9033,10 +8571,10 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B197" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D197" t="s">
         <v>122</v>
@@ -9054,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J197" t="s">
         <v>15</v>
@@ -9062,16 +8600,16 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>880</v>
+        <v>834</v>
       </c>
       <c r="B198" t="s">
-        <v>881</v>
+        <v>835</v>
       </c>
       <c r="C198" t="s">
         <v>18</v>
       </c>
       <c r="D198" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E198">
         <v>3.7</v>
@@ -9086,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>882</v>
+        <v>836</v>
       </c>
       <c r="J198" t="s">
         <v>42</v>
@@ -9097,7 +8635,7 @@
         <v>33</v>
       </c>
       <c r="B199" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E199">
         <v>3.6</v>
@@ -9112,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="J199" t="s">
         <v>197</v>
@@ -9120,16 +8658,16 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B200" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C200" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D200" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E200">
         <v>3</v>
@@ -9144,10 +8682,10 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J200" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -9155,7 +8693,7 @@
         <v>55</v>
       </c>
       <c r="B201" t="s">
-        <v>845</v>
+        <v>799</v>
       </c>
       <c r="D201" t="s">
         <v>40</v>
@@ -9173,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>846</v>
+        <v>800</v>
       </c>
       <c r="J201" t="s">
         <v>76</v>
@@ -9210,10 +8748,10 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>801</v>
+        <v>755</v>
       </c>
       <c r="B203" t="s">
-        <v>802</v>
+        <v>756</v>
       </c>
       <c r="E203">
         <v>4.0999999999999996</v>
@@ -9228,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>803</v>
+        <v>757</v>
       </c>
       <c r="J203" t="s">
         <v>54</v>
@@ -9236,16 +8774,16 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B204" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C204" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D204" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F204">
         <v>-7.7831419999999998</v>
@@ -9257,18 +8795,18 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B205" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D205" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E205">
         <v>4.4000000000000004</v>
@@ -9283,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="J205" t="s">
         <v>37</v>
@@ -9291,10 +8829,10 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>829</v>
+        <v>783</v>
       </c>
       <c r="B206" t="s">
-        <v>830</v>
+        <v>784</v>
       </c>
       <c r="E206">
         <v>4</v>
@@ -9309,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>831</v>
+        <v>785</v>
       </c>
       <c r="J206" t="s">
         <v>15</v>
@@ -9317,16 +8855,16 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B207" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C207" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D207" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E207">
         <v>2.7</v>
@@ -9341,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="J207" t="s">
         <v>58</v>
@@ -9349,10 +8887,10 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B208" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E208">
         <v>4.2</v>
@@ -9367,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J208" t="s">
         <v>15</v>
@@ -9375,10 +8913,10 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B209" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C209" t="s">
         <v>12</v>
@@ -9399,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="J209" t="s">
         <v>62</v>
@@ -9407,10 +8945,10 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>820</v>
+        <v>774</v>
       </c>
       <c r="B210" t="s">
-        <v>821</v>
+        <v>775</v>
       </c>
       <c r="C210" t="s">
         <v>18</v>
@@ -9431,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>822</v>
+        <v>776</v>
       </c>
       <c r="J210" t="s">
         <v>292</v>
@@ -9439,10 +8977,10 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B211" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -9457,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="J211" t="s">
         <v>42</v>
@@ -9465,10 +9003,10 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>798</v>
+        <v>752</v>
       </c>
       <c r="B212" t="s">
-        <v>799</v>
+        <v>753</v>
       </c>
       <c r="F212">
         <v>-7.7728679999999999</v>
@@ -9480,15 +9018,15 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>800</v>
+        <v>754</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B213" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C213" t="s">
         <v>12</v>
@@ -9506,15 +9044,15 @@
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B214" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E214">
         <v>5</v>
@@ -9529,15 +9067,15 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B215" t="s">
-        <v>1013</v>
+        <v>922</v>
       </c>
       <c r="C215" t="s">
         <v>79</v>
@@ -9555,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>1014</v>
+        <v>923</v>
       </c>
       <c r="J215" t="s">
         <v>15</v>
@@ -9563,10 +9101,10 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B216" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D216" t="s">
         <v>141</v>
@@ -9584,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="J216" t="s">
         <v>71</v>
@@ -9592,10 +9130,10 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B217" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C217" t="s">
         <v>18</v>
@@ -9616,21 +9154,21 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>996</v>
+        <v>905</v>
       </c>
       <c r="B218" t="s">
-        <v>997</v>
+        <v>906</v>
       </c>
       <c r="C218" t="s">
         <v>74</v>
       </c>
       <c r="D218" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E218">
         <v>4.9000000000000004</v>
@@ -9645,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>998</v>
+        <v>907</v>
       </c>
       <c r="J218" t="s">
         <v>76</v>
@@ -9653,16 +9191,16 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1047</v>
+        <v>929</v>
       </c>
       <c r="B219" t="s">
-        <v>1048</v>
+        <v>930</v>
       </c>
       <c r="C219" t="s">
-        <v>1049</v>
+        <v>931</v>
       </c>
       <c r="D219" t="s">
-        <v>1050</v>
+        <v>932</v>
       </c>
       <c r="F219">
         <v>-7.7637650000000002</v>
@@ -9674,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>1051</v>
+        <v>933</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -9682,7 +9220,7 @@
         <v>16</v>
       </c>
       <c r="B220" t="s">
-        <v>794</v>
+        <v>748</v>
       </c>
       <c r="C220" t="s">
         <v>18</v>
@@ -9703,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="J220" t="s">
         <v>42</v>
@@ -9711,10 +9249,10 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>851</v>
+        <v>805</v>
       </c>
       <c r="B221" t="s">
-        <v>852</v>
+        <v>806</v>
       </c>
       <c r="E221">
         <v>5</v>
@@ -9729,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>853</v>
+        <v>807</v>
       </c>
       <c r="J221" t="s">
         <v>54</v>
@@ -9737,16 +9275,16 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>911</v>
+        <v>846</v>
       </c>
       <c r="B222" t="s">
-        <v>912</v>
+        <v>847</v>
       </c>
       <c r="C222" t="s">
         <v>79</v>
       </c>
       <c r="D222" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E222">
         <v>4</v>
@@ -9761,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>913</v>
+        <v>848</v>
       </c>
       <c r="J222" t="s">
         <v>15</v>
@@ -9769,10 +9307,10 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>886</v>
+        <v>840</v>
       </c>
       <c r="B223" t="s">
-        <v>887</v>
+        <v>841</v>
       </c>
       <c r="F223">
         <v>-7.7623889999999998</v>
@@ -9784,15 +9322,15 @@
         <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>888</v>
+        <v>842</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>871</v>
+        <v>825</v>
       </c>
       <c r="B224" t="s">
-        <v>872</v>
+        <v>826</v>
       </c>
       <c r="C224" t="s">
         <v>18</v>
@@ -9813,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="s">
-        <v>873</v>
+        <v>827</v>
       </c>
       <c r="J224" t="s">
         <v>54</v>
@@ -9821,10 +9359,10 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>838</v>
+        <v>792</v>
       </c>
       <c r="B225" t="s">
-        <v>839</v>
+        <v>793</v>
       </c>
       <c r="C225" t="s">
         <v>18</v>
@@ -9842,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>840</v>
+        <v>794</v>
       </c>
       <c r="J225" t="s">
         <v>71</v>
@@ -9850,10 +9388,10 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>804</v>
+        <v>758</v>
       </c>
       <c r="B226" t="s">
-        <v>805</v>
+        <v>759</v>
       </c>
       <c r="E226">
         <v>4</v>
@@ -9868,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>806</v>
+        <v>760</v>
       </c>
       <c r="J226" t="s">
         <v>32</v>
@@ -9876,13 +9414,13 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B227" t="s">
-        <v>977</v>
+        <v>886</v>
       </c>
       <c r="D227" t="s">
-        <v>978</v>
+        <v>887</v>
       </c>
       <c r="E227">
         <v>4.5</v>
@@ -9897,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>979</v>
+        <v>888</v>
       </c>
       <c r="J227" t="s">
         <v>50</v>
@@ -9905,10 +9443,10 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B228" t="s">
-        <v>863</v>
+        <v>817</v>
       </c>
       <c r="F228">
         <v>-7.7532199999999998</v>
@@ -9920,15 +9458,15 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>864</v>
+        <v>818</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>908</v>
+        <v>843</v>
       </c>
       <c r="B229" t="s">
-        <v>909</v>
+        <v>844</v>
       </c>
       <c r="C229" t="s">
         <v>18</v>
@@ -9946,18 +9484,18 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>910</v>
+        <v>845</v>
       </c>
       <c r="J229" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>983</v>
+        <v>892</v>
       </c>
       <c r="B230" t="s">
-        <v>984</v>
+        <v>893</v>
       </c>
       <c r="C230" t="s">
         <v>12</v>
@@ -9975,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>985</v>
+        <v>894</v>
       </c>
       <c r="J230" t="s">
         <v>76</v>
@@ -9986,7 +9524,7 @@
         <v>33</v>
       </c>
       <c r="B231" t="s">
-        <v>923</v>
+        <v>858</v>
       </c>
       <c r="E231">
         <v>3.9</v>
@@ -10001,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>924</v>
+        <v>859</v>
       </c>
       <c r="J231" t="s">
         <v>54</v>
@@ -10012,7 +9550,7 @@
         <v>77</v>
       </c>
       <c r="B232" t="s">
-        <v>988</v>
+        <v>897</v>
       </c>
       <c r="E232">
         <v>5</v>
@@ -10027,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="s">
-        <v>989</v>
+        <v>898</v>
       </c>
       <c r="J232" t="s">
         <v>42</v>
@@ -10035,10 +9573,10 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>963</v>
+        <v>872</v>
       </c>
       <c r="B233" t="s">
-        <v>964</v>
+        <v>873</v>
       </c>
       <c r="E233">
         <v>4.0999999999999996</v>
@@ -10053,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>965</v>
+        <v>874</v>
       </c>
       <c r="J233" t="s">
         <v>54</v>
@@ -10087,10 +9625,10 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>928</v>
+        <v>863</v>
       </c>
       <c r="B235" t="s">
-        <v>929</v>
+        <v>864</v>
       </c>
       <c r="E235">
         <v>3.5</v>
@@ -10105,18 +9643,18 @@
         <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>930</v>
+        <v>865</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>999</v>
+        <v>908</v>
       </c>
       <c r="B236" t="s">
-        <v>1000</v>
+        <v>909</v>
       </c>
       <c r="D236" t="s">
-        <v>1001</v>
+        <v>910</v>
       </c>
       <c r="E236">
         <v>5</v>
@@ -10131,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>1002</v>
+        <v>911</v>
       </c>
       <c r="J236" t="s">
         <v>54</v>
@@ -10139,10 +9677,10 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>841</v>
+        <v>795</v>
       </c>
       <c r="B237" t="s">
-        <v>842</v>
+        <v>796</v>
       </c>
       <c r="E237">
         <v>5</v>
@@ -10157,18 +9695,18 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>843</v>
+        <v>797</v>
       </c>
       <c r="J237" t="s">
-        <v>844</v>
+        <v>798</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>980</v>
+        <v>889</v>
       </c>
       <c r="B238" t="s">
-        <v>981</v>
+        <v>890</v>
       </c>
       <c r="C238" t="s">
         <v>79</v>
@@ -10186,15 +9724,15 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>982</v>
+        <v>891</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>883</v>
+        <v>837</v>
       </c>
       <c r="B239" t="s">
-        <v>884</v>
+        <v>838</v>
       </c>
       <c r="C239" t="s">
         <v>18</v>
@@ -10215,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>885</v>
+        <v>839</v>
       </c>
       <c r="J239" t="s">
         <v>54</v>
@@ -10223,10 +9761,10 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>791</v>
+        <v>745</v>
       </c>
       <c r="B240" t="s">
-        <v>792</v>
+        <v>746</v>
       </c>
       <c r="C240" t="s">
         <v>18</v>
@@ -10247,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>793</v>
+        <v>747</v>
       </c>
       <c r="J240" t="s">
         <v>108</v>
@@ -10255,10 +9793,10 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B241" t="s">
-        <v>931</v>
+        <v>866</v>
       </c>
       <c r="C241" t="s">
         <v>18</v>
@@ -10279,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="s">
-        <v>932</v>
+        <v>867</v>
       </c>
       <c r="J241" t="s">
         <v>42</v>
@@ -10290,7 +9828,7 @@
         <v>16</v>
       </c>
       <c r="B242" t="s">
-        <v>990</v>
+        <v>899</v>
       </c>
       <c r="C242" t="s">
         <v>18</v>
@@ -10308,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>991</v>
+        <v>900</v>
       </c>
       <c r="J242" t="s">
         <v>20</v>
@@ -10316,10 +9854,10 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1055</v>
+        <v>934</v>
       </c>
       <c r="B243" t="s">
-        <v>1056</v>
+        <v>935</v>
       </c>
       <c r="C243" t="s">
         <v>12</v>
@@ -10337,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="s">
-        <v>1057</v>
+        <v>936</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -10345,7 +9883,7 @@
         <v>16</v>
       </c>
       <c r="B244" t="s">
-        <v>972</v>
+        <v>881</v>
       </c>
       <c r="C244" t="s">
         <v>18</v>
@@ -10363,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="s">
-        <v>973</v>
+        <v>882</v>
       </c>
       <c r="J244" t="s">
         <v>71</v>
@@ -10374,7 +9912,7 @@
         <v>181</v>
       </c>
       <c r="B245" t="s">
-        <v>1003</v>
+        <v>912</v>
       </c>
       <c r="C245" t="s">
         <v>18</v>
@@ -10395,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>1004</v>
+        <v>913</v>
       </c>
       <c r="J245" t="s">
         <v>71</v>
@@ -10406,7 +9944,7 @@
         <v>16</v>
       </c>
       <c r="B246" t="s">
-        <v>986</v>
+        <v>895</v>
       </c>
       <c r="C246" t="s">
         <v>18</v>
@@ -10424,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>987</v>
+        <v>896</v>
       </c>
       <c r="J246" t="s">
         <v>54</v>
@@ -10432,10 +9970,10 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1077</v>
+        <v>940</v>
       </c>
       <c r="B247" t="s">
-        <v>1078</v>
+        <v>941</v>
       </c>
       <c r="D247" t="s">
         <v>250</v>
@@ -10450,15 +9988,15 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>1079</v>
+        <v>942</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>865</v>
+        <v>819</v>
       </c>
       <c r="B248" t="s">
-        <v>866</v>
+        <v>820</v>
       </c>
       <c r="C248" t="s">
         <v>12</v>
@@ -10479,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="s">
-        <v>867</v>
+        <v>821</v>
       </c>
       <c r="J248" t="s">
         <v>62</v>
@@ -10487,10 +10025,10 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>974</v>
+        <v>883</v>
       </c>
       <c r="B249" t="s">
-        <v>975</v>
+        <v>884</v>
       </c>
       <c r="C249" t="s">
         <v>79</v>
@@ -10511,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="s">
-        <v>976</v>
+        <v>885</v>
       </c>
       <c r="J249" t="s">
         <v>15</v>
@@ -10522,7 +10060,7 @@
         <v>181</v>
       </c>
       <c r="B250" t="s">
-        <v>992</v>
+        <v>901</v>
       </c>
       <c r="C250" t="s">
         <v>18</v>
@@ -10540,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>993</v>
+        <v>902</v>
       </c>
       <c r="J250" t="s">
         <v>32</v>
@@ -12009,1279 +11547,6 @@
       </c>
       <c r="J303" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>255</v>
-      </c>
-      <c r="B304" t="s">
-        <v>310</v>
-      </c>
-      <c r="H304" t="b">
-        <v>0</v>
-      </c>
-      <c r="I304" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>315</v>
-      </c>
-      <c r="B305" t="s">
-        <v>316</v>
-      </c>
-      <c r="C305" t="s">
-        <v>12</v>
-      </c>
-      <c r="D305" t="s">
-        <v>26</v>
-      </c>
-      <c r="H305" t="b">
-        <v>0</v>
-      </c>
-      <c r="I305" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>487</v>
-      </c>
-      <c r="B306" t="s">
-        <v>488</v>
-      </c>
-      <c r="C306" t="s">
-        <v>79</v>
-      </c>
-      <c r="D306" t="s">
-        <v>489</v>
-      </c>
-      <c r="E306">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H306" t="b">
-        <v>0</v>
-      </c>
-      <c r="I306" t="s">
-        <v>490</v>
-      </c>
-      <c r="J306" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>497</v>
-      </c>
-      <c r="B307" t="s">
-        <v>498</v>
-      </c>
-      <c r="E307">
-        <v>5</v>
-      </c>
-      <c r="H307" t="b">
-        <v>0</v>
-      </c>
-      <c r="I307" t="s">
-        <v>499</v>
-      </c>
-      <c r="J307" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>500</v>
-      </c>
-      <c r="B308" t="s">
-        <v>501</v>
-      </c>
-      <c r="E308">
-        <v>2.9</v>
-      </c>
-      <c r="H308" t="b">
-        <v>0</v>
-      </c>
-      <c r="I308" t="s">
-        <v>502</v>
-      </c>
-      <c r="J308" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>94</v>
-      </c>
-      <c r="B309" t="s">
-        <v>521</v>
-      </c>
-      <c r="D309" t="s">
-        <v>40</v>
-      </c>
-      <c r="E309">
-        <v>4.7</v>
-      </c>
-      <c r="H309" t="b">
-        <v>0</v>
-      </c>
-      <c r="I309" t="s">
-        <v>522</v>
-      </c>
-      <c r="J309" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>525</v>
-      </c>
-      <c r="B310" t="s">
-        <v>526</v>
-      </c>
-      <c r="E310">
-        <v>3.8</v>
-      </c>
-      <c r="H310" t="b">
-        <v>0</v>
-      </c>
-      <c r="I310" t="s">
-        <v>527</v>
-      </c>
-      <c r="J310" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>528</v>
-      </c>
-      <c r="B311" t="s">
-        <v>529</v>
-      </c>
-      <c r="E311">
-        <v>4</v>
-      </c>
-      <c r="H311" t="b">
-        <v>0</v>
-      </c>
-      <c r="I311" t="s">
-        <v>530</v>
-      </c>
-      <c r="J311" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>540</v>
-      </c>
-      <c r="B312" t="s">
-        <v>541</v>
-      </c>
-      <c r="E312">
-        <v>4</v>
-      </c>
-      <c r="H312" t="b">
-        <v>0</v>
-      </c>
-      <c r="I312" t="s">
-        <v>542</v>
-      </c>
-      <c r="J312" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>559</v>
-      </c>
-      <c r="B313" t="s">
-        <v>560</v>
-      </c>
-      <c r="C313" t="s">
-        <v>12</v>
-      </c>
-      <c r="E313">
-        <v>4.5</v>
-      </c>
-      <c r="H313" t="b">
-        <v>0</v>
-      </c>
-      <c r="I313" t="s">
-        <v>561</v>
-      </c>
-      <c r="J313" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>55</v>
-      </c>
-      <c r="B314" t="s">
-        <v>577</v>
-      </c>
-      <c r="E314">
-        <v>4.2</v>
-      </c>
-      <c r="H314" t="b">
-        <v>0</v>
-      </c>
-      <c r="I314" t="s">
-        <v>578</v>
-      </c>
-      <c r="J314" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>650</v>
-      </c>
-      <c r="B315" t="s">
-        <v>651</v>
-      </c>
-      <c r="E315">
-        <v>4.3</v>
-      </c>
-      <c r="H315" t="b">
-        <v>0</v>
-      </c>
-      <c r="I315" t="s">
-        <v>652</v>
-      </c>
-      <c r="J315" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>683</v>
-      </c>
-      <c r="B316" t="s">
-        <v>684</v>
-      </c>
-      <c r="C316" t="s">
-        <v>74</v>
-      </c>
-      <c r="D316" t="s">
-        <v>122</v>
-      </c>
-      <c r="E316">
-        <v>4.7</v>
-      </c>
-      <c r="H316" t="b">
-        <v>0</v>
-      </c>
-      <c r="I316" t="s">
-        <v>685</v>
-      </c>
-      <c r="J316" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>691</v>
-      </c>
-      <c r="B317" t="s">
-        <v>692</v>
-      </c>
-      <c r="E317">
-        <v>4</v>
-      </c>
-      <c r="H317" t="b">
-        <v>0</v>
-      </c>
-      <c r="I317" t="s">
-        <v>693</v>
-      </c>
-      <c r="J317" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>718</v>
-      </c>
-      <c r="B318" t="s">
-        <v>719</v>
-      </c>
-      <c r="D318" t="s">
-        <v>720</v>
-      </c>
-      <c r="E318">
-        <v>3.4</v>
-      </c>
-      <c r="H318" t="b">
-        <v>0</v>
-      </c>
-      <c r="I318" t="s">
-        <v>721</v>
-      </c>
-      <c r="J318" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>211</v>
-      </c>
-      <c r="B319" t="s">
-        <v>737</v>
-      </c>
-      <c r="C319" t="s">
-        <v>738</v>
-      </c>
-      <c r="E319">
-        <v>4.2</v>
-      </c>
-      <c r="H319" t="b">
-        <v>0</v>
-      </c>
-      <c r="I319" t="s">
-        <v>739</v>
-      </c>
-      <c r="J319" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>889</v>
-      </c>
-      <c r="B320" t="s">
-        <v>890</v>
-      </c>
-      <c r="C320" t="s">
-        <v>18</v>
-      </c>
-      <c r="D320" t="s">
-        <v>242</v>
-      </c>
-      <c r="E320">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H320" t="b">
-        <v>0</v>
-      </c>
-      <c r="I320" t="s">
-        <v>891</v>
-      </c>
-      <c r="J320" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>892</v>
-      </c>
-      <c r="B321" t="s">
-        <v>893</v>
-      </c>
-      <c r="C321" t="s">
-        <v>74</v>
-      </c>
-      <c r="E321">
-        <v>4.8</v>
-      </c>
-      <c r="H321" t="b">
-        <v>0</v>
-      </c>
-      <c r="I321" t="s">
-        <v>894</v>
-      </c>
-      <c r="J321" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>895</v>
-      </c>
-      <c r="B322" t="s">
-        <v>896</v>
-      </c>
-      <c r="E322">
-        <v>5</v>
-      </c>
-      <c r="H322" t="b">
-        <v>0</v>
-      </c>
-      <c r="I322" t="s">
-        <v>897</v>
-      </c>
-      <c r="J322" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>16</v>
-      </c>
-      <c r="B323" t="s">
-        <v>898</v>
-      </c>
-      <c r="C323" t="s">
-        <v>18</v>
-      </c>
-      <c r="E323">
-        <v>4</v>
-      </c>
-      <c r="H323" t="b">
-        <v>0</v>
-      </c>
-      <c r="I323" t="s">
-        <v>899</v>
-      </c>
-      <c r="J323" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>900</v>
-      </c>
-      <c r="B324" t="s">
-        <v>901</v>
-      </c>
-      <c r="E324">
-        <v>4.7</v>
-      </c>
-      <c r="H324" t="b">
-        <v>0</v>
-      </c>
-      <c r="I324" t="s">
-        <v>902</v>
-      </c>
-      <c r="J324" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>181</v>
-      </c>
-      <c r="B325" t="s">
-        <v>903</v>
-      </c>
-      <c r="C325" t="s">
-        <v>18</v>
-      </c>
-      <c r="E325">
-        <v>2</v>
-      </c>
-      <c r="H325" t="b">
-        <v>0</v>
-      </c>
-      <c r="I325" t="s">
-        <v>904</v>
-      </c>
-      <c r="J325" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>905</v>
-      </c>
-      <c r="B326" t="s">
-        <v>906</v>
-      </c>
-      <c r="C326" t="s">
-        <v>79</v>
-      </c>
-      <c r="E326">
-        <v>4.8</v>
-      </c>
-      <c r="H326" t="b">
-        <v>0</v>
-      </c>
-      <c r="I326" t="s">
-        <v>907</v>
-      </c>
-      <c r="J326" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>937</v>
-      </c>
-      <c r="B327" t="s">
-        <v>938</v>
-      </c>
-      <c r="C327" t="s">
-        <v>12</v>
-      </c>
-      <c r="E327">
-        <v>4</v>
-      </c>
-      <c r="H327" t="b">
-        <v>0</v>
-      </c>
-      <c r="I327" t="s">
-        <v>939</v>
-      </c>
-      <c r="J327" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>940</v>
-      </c>
-      <c r="B328" t="s">
-        <v>941</v>
-      </c>
-      <c r="C328" t="s">
-        <v>18</v>
-      </c>
-      <c r="E328">
-        <v>4.7</v>
-      </c>
-      <c r="H328" t="b">
-        <v>0</v>
-      </c>
-      <c r="I328" t="s">
-        <v>942</v>
-      </c>
-      <c r="J328" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>29</v>
-      </c>
-      <c r="B329" t="s">
-        <v>943</v>
-      </c>
-      <c r="D329" t="s">
-        <v>944</v>
-      </c>
-      <c r="E329">
-        <v>4.3</v>
-      </c>
-      <c r="H329" t="b">
-        <v>0</v>
-      </c>
-      <c r="I329" t="s">
-        <v>945</v>
-      </c>
-      <c r="J329" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>946</v>
-      </c>
-      <c r="B330" t="s">
-        <v>947</v>
-      </c>
-      <c r="C330" t="s">
-        <v>79</v>
-      </c>
-      <c r="D330" t="s">
-        <v>132</v>
-      </c>
-      <c r="E330">
-        <v>4.2</v>
-      </c>
-      <c r="H330" t="b">
-        <v>0</v>
-      </c>
-      <c r="I330" t="s">
-        <v>948</v>
-      </c>
-      <c r="J330" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>949</v>
-      </c>
-      <c r="B331" t="s">
-        <v>950</v>
-      </c>
-      <c r="C331" t="s">
-        <v>79</v>
-      </c>
-      <c r="E331">
-        <v>4.5</v>
-      </c>
-      <c r="H331" t="b">
-        <v>0</v>
-      </c>
-      <c r="I331" t="s">
-        <v>951</v>
-      </c>
-      <c r="J331" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>112</v>
-      </c>
-      <c r="B332" t="s">
-        <v>952</v>
-      </c>
-      <c r="D332" t="s">
-        <v>122</v>
-      </c>
-      <c r="E332">
-        <v>3.5</v>
-      </c>
-      <c r="H332" t="b">
-        <v>0</v>
-      </c>
-      <c r="I332" t="s">
-        <v>953</v>
-      </c>
-      <c r="J332" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>954</v>
-      </c>
-      <c r="B333" t="s">
-        <v>955</v>
-      </c>
-      <c r="C333" t="s">
-        <v>18</v>
-      </c>
-      <c r="D333" t="s">
-        <v>274</v>
-      </c>
-      <c r="E333">
-        <v>3</v>
-      </c>
-      <c r="H333" t="b">
-        <v>0</v>
-      </c>
-      <c r="I333" t="s">
-        <v>956</v>
-      </c>
-      <c r="J333" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>957</v>
-      </c>
-      <c r="B334" t="s">
-        <v>958</v>
-      </c>
-      <c r="C334" t="s">
-        <v>79</v>
-      </c>
-      <c r="E334">
-        <v>5</v>
-      </c>
-      <c r="H334" t="b">
-        <v>0</v>
-      </c>
-      <c r="I334" t="s">
-        <v>959</v>
-      </c>
-      <c r="J334" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>960</v>
-      </c>
-      <c r="B335" t="s">
-        <v>961</v>
-      </c>
-      <c r="C335" t="s">
-        <v>12</v>
-      </c>
-      <c r="D335" t="s">
-        <v>26</v>
-      </c>
-      <c r="E335">
-        <v>4</v>
-      </c>
-      <c r="H335" t="b">
-        <v>0</v>
-      </c>
-      <c r="I335" t="s">
-        <v>962</v>
-      </c>
-      <c r="J335" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E336">
-        <v>5</v>
-      </c>
-      <c r="H336" t="b">
-        <v>0</v>
-      </c>
-      <c r="I336" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J336" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E337">
-        <v>3</v>
-      </c>
-      <c r="H337" t="b">
-        <v>0</v>
-      </c>
-      <c r="I337" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J337" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B338" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E338">
-        <v>4</v>
-      </c>
-      <c r="H338" t="b">
-        <v>0</v>
-      </c>
-      <c r="I338" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J338" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B339" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E339">
-        <v>3.5</v>
-      </c>
-      <c r="H339" t="b">
-        <v>0</v>
-      </c>
-      <c r="I339" t="s">
-        <v>1026</v>
-      </c>
-      <c r="J339" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C340" t="s">
-        <v>18</v>
-      </c>
-      <c r="D340" t="s">
-        <v>242</v>
-      </c>
-      <c r="E340">
-        <v>4</v>
-      </c>
-      <c r="H340" t="b">
-        <v>0</v>
-      </c>
-      <c r="I340" t="s">
-        <v>1031</v>
-      </c>
-      <c r="J340" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B341" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C341" t="s">
-        <v>79</v>
-      </c>
-      <c r="D341" t="s">
-        <v>375</v>
-      </c>
-      <c r="E341">
-        <v>3.6</v>
-      </c>
-      <c r="H341" t="b">
-        <v>0</v>
-      </c>
-      <c r="I341" t="s">
-        <v>1034</v>
-      </c>
-      <c r="J341" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>324</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C342" t="s">
-        <v>79</v>
-      </c>
-      <c r="D342" t="s">
-        <v>132</v>
-      </c>
-      <c r="E342">
-        <v>5</v>
-      </c>
-      <c r="H342" t="b">
-        <v>0</v>
-      </c>
-      <c r="I342" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J342" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>187</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D343" t="s">
-        <v>13</v>
-      </c>
-      <c r="E343">
-        <v>4</v>
-      </c>
-      <c r="H343" t="b">
-        <v>0</v>
-      </c>
-      <c r="I343" t="s">
-        <v>1038</v>
-      </c>
-      <c r="J343" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C344" t="s">
-        <v>79</v>
-      </c>
-      <c r="D344" t="s">
-        <v>375</v>
-      </c>
-      <c r="E344">
-        <v>4.3</v>
-      </c>
-      <c r="H344" t="b">
-        <v>0</v>
-      </c>
-      <c r="I344" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J344" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>440</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C345" t="s">
-        <v>18</v>
-      </c>
-      <c r="D345" t="s">
-        <v>69</v>
-      </c>
-      <c r="E345">
-        <v>4</v>
-      </c>
-      <c r="H345" t="b">
-        <v>0</v>
-      </c>
-      <c r="I345" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J345" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B346" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E346">
-        <v>3.5</v>
-      </c>
-      <c r="H346" t="b">
-        <v>0</v>
-      </c>
-      <c r="I346" t="s">
-        <v>1054</v>
-      </c>
-      <c r="J346" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C347" t="s">
-        <v>79</v>
-      </c>
-      <c r="D347" t="s">
-        <v>375</v>
-      </c>
-      <c r="E347">
-        <v>4.5</v>
-      </c>
-      <c r="H347" t="b">
-        <v>0</v>
-      </c>
-      <c r="I347" t="s">
-        <v>1060</v>
-      </c>
-      <c r="J347" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E348">
-        <v>3.7</v>
-      </c>
-      <c r="H348" t="b">
-        <v>0</v>
-      </c>
-      <c r="I348" t="s">
-        <v>1063</v>
-      </c>
-      <c r="J348" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>440</v>
-      </c>
-      <c r="B349" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C349" t="s">
-        <v>18</v>
-      </c>
-      <c r="D349" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E349">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H349" t="b">
-        <v>0</v>
-      </c>
-      <c r="I349" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J349" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>16</v>
-      </c>
-      <c r="B350" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C350" t="s">
-        <v>18</v>
-      </c>
-      <c r="E350">
-        <v>3.8</v>
-      </c>
-      <c r="H350" t="b">
-        <v>0</v>
-      </c>
-      <c r="I350" t="s">
-        <v>1068</v>
-      </c>
-      <c r="J350" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>55</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E351">
-        <v>3.5</v>
-      </c>
-      <c r="H351" t="b">
-        <v>0</v>
-      </c>
-      <c r="I351" t="s">
-        <v>1073</v>
-      </c>
-      <c r="J351" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B352" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C352" t="s">
-        <v>79</v>
-      </c>
-      <c r="D352" t="s">
-        <v>375</v>
-      </c>
-      <c r="E352">
-        <v>5</v>
-      </c>
-      <c r="H352" t="b">
-        <v>0</v>
-      </c>
-      <c r="I352" t="s">
-        <v>1076</v>
-      </c>
-      <c r="J352" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>130</v>
-      </c>
-      <c r="B353" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D353" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E353">
-        <v>4</v>
-      </c>
-      <c r="H353" t="b">
-        <v>0</v>
-      </c>
-      <c r="I353" t="s">
-        <v>1081</v>
-      </c>
-      <c r="J353" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E354">
-        <v>3.7</v>
-      </c>
-      <c r="H354" t="b">
-        <v>0</v>
-      </c>
-      <c r="I354" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J354" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D355" t="s">
-        <v>45</v>
-      </c>
-      <c r="E355">
-        <v>2.5</v>
-      </c>
-      <c r="H355" t="b">
-        <v>0</v>
-      </c>
-      <c r="I355" t="s">
-        <v>1087</v>
-      </c>
-      <c r="J355" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>324</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C356" t="s">
-        <v>79</v>
-      </c>
-      <c r="D356" t="s">
-        <v>132</v>
-      </c>
-      <c r="E356">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H356" t="b">
-        <v>0</v>
-      </c>
-      <c r="I356" t="s">
-        <v>1089</v>
-      </c>
-      <c r="J356" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>139</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D357" t="s">
-        <v>13</v>
-      </c>
-      <c r="E357">
-        <v>3.3</v>
-      </c>
-      <c r="H357" t="b">
-        <v>0</v>
-      </c>
-      <c r="I357" t="s">
-        <v>1091</v>
-      </c>
-      <c r="J357" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C358" t="s">
-        <v>79</v>
-      </c>
-      <c r="D358" t="s">
-        <v>132</v>
-      </c>
-      <c r="E358">
-        <v>5</v>
-      </c>
-      <c r="H358" t="b">
-        <v>0</v>
-      </c>
-      <c r="I358" t="s">
-        <v>1096</v>
-      </c>
-      <c r="J358" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>324</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C359" t="s">
-        <v>79</v>
-      </c>
-      <c r="D359" t="s">
-        <v>375</v>
-      </c>
-      <c r="E359">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H359" t="b">
-        <v>0</v>
-      </c>
-      <c r="I359" t="s">
-        <v>1098</v>
-      </c>
-      <c r="J359" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
